--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_beg.xlsx
@@ -716,19 +716,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  And you’re too afraid to come visit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria Warrior"]  Hmph, you’re all cowards for holing up in your rainforest!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  We’ll find out right now if that really makes me a coward.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Well, even with all those weird gadgets, Zumama hasn’t changed one bit.
+    <t xml:space="preserve">[name="Eunectes"]  And you're too afraid to come visit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria Warrior"]  Hmph, you're all cowards for holing up in your rainforest!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  We'll find out right now if that really makes me a coward.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Well, even with all those weird gadgets, Zumama hasn't changed one bit.
 </t>
   </si>
   <si>
@@ -736,11 +736,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  That girl in the arena is Zumama. We aren’t from the same tribe, but we lived pretty close to each other. Plus, we’re about the same age, so you could say we grew up together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  She doesn’t talk much, but she handles herself in a fight.
+    <t xml:space="preserve">[name="Gavial"]  That girl in the arena is Zumama. We aren't from the same tribe, but we lived pretty close to each other. Plus, we're about the same age, so you could say we grew up together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  She doesn't talk much, but she handles herself in a fight.
 </t>
   </si>
   <si>
@@ -748,11 +748,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Her tribe moved away not long after that, and we didn’t see each other much anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Word is she’s as strong as ever, but she came down with some weird disease and started talking to herself.
+    <t xml:space="preserve">[name="Gavial"]  Her tribe moved away not long after that, and we didn't see each other much anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Word is she's as strong as ever, but she came down with some weird disease and started talking to herself.
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  And now she’s here, calling herself Eunectes? Who would’ve thought? Anyway, now that she’s here, you see that guy up there? Probably done for.
+    <t xml:space="preserve">[name="Gavial"]  And now she's here, calling herself Eunectes? Who would've thought? Anyway, now that she's here, you see that guy up there? Probably done for.
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria"]  Eunectes, we’ll challenge you.
+    <t xml:space="preserve">[name="Archosauria"]  Eunectes, we'll challenge you.
 </t>
   </si>
   <si>
@@ -792,11 +792,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria"]  I’m the leader of the Raging Flames, Uda!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria"]  I’m the leader of the Scars, Aruna!
+    <t xml:space="preserve">[name="Archosauria"]  I'm the leader of the Raging Flames, Uda!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria"]  I'm the leader of the Scars, Aruna!
 </t>
   </si>
   <si>
@@ -808,39 +808,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Uda"]  Yeah, that’s right. Our tribes’ got a little, uh... what do you call those again?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aruna"]  It’s a pact, you dimwit!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Uda"]  That’s right, a pact!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aruna"]  If you want the throne, you’ll have to go through us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I wasn’t expecting it to be a walk in the park. But I didn’t know you could be so unified.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Uda"]  What’s that got to do with you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aruna"]  Hmph, and a Great Chief who’s always tinkering with widgets? You can bet I have a problem with that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You’re allowed to bring people with you to the ceremony?;......;This isn’t one-on-one?",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Hm? Oh, yes, that’s allowed.
+    <t xml:space="preserve">[name="Uda"]  Yeah, that's right. Our tribes' got a little, uh... what do you call those again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aruna"]  It's a pact, you dimwit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Uda"]  That's right, a pact!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aruna"]  If you want the throne, you'll have to go through us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I wasn't expecting it to be a walk in the park. But I didn't know you could be so unified.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Uda"]  What's that got to do with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aruna"]  Hmph, and a Great Chief who's always tinkering with widgets? You can bet I have a problem with that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You're allowed to bring people with you to the ceremony?;......;This isn't one-on-one?",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Hm? Oh, yes, that's allowed.
 </t>
   </si>
   <si>
@@ -848,11 +848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Hm? Wouldn’t that take a while?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Most folks fight one-on-one out of pride, but the only rule the ceremony’s got is that you can do whatever it takes to win, and whoever that ends up winning will become the Great Chief.
+    <t xml:space="preserve">[name="Tomimi"]  Hm? Wouldn't that take a while?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Most folks fight one-on-one out of pride, but the only rule the ceremony's got is that you can do whatever it takes to win, and whoever that ends up winning will become the Great Chief.
 </t>
   </si>
   <si>
@@ -868,19 +868,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Ah, Doctor, whatever you’re thinking, I can tell you’re up to no good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hahaha, Doctor. I hate to break it to you, but you don’t have what it takes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I did say there’s no rules, but it’s not what you’re thinking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  The folks here are pretty simple. The only thing they can think of is to bring lots of people with ‘em, no matter what it is they're trying to do.
+    <t xml:space="preserve">[name="Gavial"]  Ah, Doctor, whatever you're thinking, I can tell you're up to no good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hahaha, Doctor. I hate to break it to you, but you don't have what it takes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I did say there's no rules, but it's not what you're thinking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  The folks here are pretty simple. The only thing they can think of is to bring lots of people with 'em, no matter what it is they're trying to do.
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Honestly, even after my years with Rhodes Island, I’ve still got no idea how to go do that kinda stuff.
+    <t xml:space="preserve">[name="Gavial"]  Honestly, even after my years with Rhodes Island, I've still got no idea how to go do that kinda stuff.
 </t>
   </si>
   <si>
@@ -896,31 +896,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Haha, that’s right. They might just start infighting afterwards. Happens all the time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But on the flipside, that does mean you can do whatever it takes for you to win, and you’re free to try.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But I’m sure you're just gonna get yourself beaten up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You really think I’m that bad?;......;Sounds like people here lead a simple life.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hahaha, I’m just putting it the way it is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Haha, it’s not often I see you roll your eyes like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, it wasn’t till I left that I found out just how simple things were back home.
+    <t xml:space="preserve">[name="Gavial"]  Haha, that's right. They might just start infighting afterwards. Happens all the time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But on the flipside, that does mean you can do whatever it takes for you to win, and you're free to try.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But I'm sure you're just gonna get yourself beaten up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You really think I'm that bad?;......;Sounds like people here lead a simple life.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hahaha, I'm just putting it the way it is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Haha, it's not often I see you roll your eyes like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah, it wasn't till I left that I found out just how simple things were back home.
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Well, Doctor, I do think you’d be able to pull it off and still keep it under wraps, but there’s one thing that separates you from the rest of them. Do you know what that is?
+    <t xml:space="preserve">[name="Gavial"]  Well, Doctor, I do think you'd be able to pull it off and still keep it under wraps, but there's one thing that separates you from the rest of them. Do you know what that is?
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Come on, Doctor. Don’t pout.
+    <t xml:space="preserve">[name="Gavial"]  Come on, Doctor. Don't pout.
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Anyway, I’ll get right down to it. If you want to be the Great Chief, there’s actually just one requirement that you’ve gotta meet.
+    <t xml:space="preserve">[name="Gavial"]  Anyway, I'll get right down to it. If you want to be the Great Chief, there's actually just one requirement that you've gotta meet.
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  This is strange, though. From what I remember, those two aren’t exactly best friends. I didn’t expect to see them working together.
+    <t xml:space="preserve">[name="Gavial"]  This is strange, though. From what I remember, those two aren't exactly best friends. I didn't expect to see them working together.
 </t>
   </si>
   <si>
@@ -976,11 +976,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hmm? Tomimi, didn’t you say Zumama is her tribe’s leader? Where are her people?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Huh? Now that you mention it, I don’t see a lot of people from her tribe.
+    <t xml:space="preserve">[name="Gavial"]  Hmm? Tomimi, didn't you say Zumama is her tribe's leader? Where are her people?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Huh? Now that you mention it, I don't see a lot of people from her tribe.
 </t>
   </si>
   <si>
@@ -988,11 +988,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Well, they all look pretty well-equipped, but that’s not a whole lot of them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Heh, she’s following in my footsteps and trying to take them all down by herself, isn’t she? Now that’s what I’m talking about!
+    <t xml:space="preserve">[name="Gavial"]  Well, they all look pretty well-equipped, but that's not a whole lot of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Heh, she's following in my footsteps and trying to take them all down by herself, isn't she? Now that's what I'm talking about!
 </t>
   </si>
   <si>
@@ -1000,19 +1000,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Eh? Yeah, but I’m in no rush.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Zumama’s tough. The Scars won’t stand a chance against her, so I’ll join in after she wears herself out on them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hehe, you’ve gotten smarter, Tomimi.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ehehe, I’m pretty serious about becoming the Great Chief. Besides...
+    <t xml:space="preserve">[name="Tomimi"]  Eh? Yeah, but I'm in no rush.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Zumama's tough. The Scars won't stand a chance against her, so I'll join in after she wears herself out on them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hehe, you've gotten smarter, Tomimi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Ehehe, I'm pretty serious about becoming the Great Chief. Besides...
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, let’s talk later. They’re about to get started!
+    <t xml:space="preserve">[name="Gavial"]  Oh, let's talk later. They're about to get started!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_beg.xlsx
@@ -1352,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="가비알"]  아, 이따가 다시 얘기해요. 싸움이 시작됐어요!
+    <t xml:space="preserve">[name="가비알"]  아, 이따가 다시 얘기해. 싸움이 시작됐다!
 </t>
   </si>
 </sst>
